--- a/API_TEST_FRAME/test_data/test_case.xlsx
+++ b/API_TEST_FRAME/test_data/test_case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="9700"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
   <si>
     <t>测试用例编号</t>
   </si>
@@ -162,10 +162,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -183,6 +183,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -191,8 +234,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,22 +244,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,12 +259,59 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -250,82 +326,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -336,37 +336,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,49 +486,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,19 +498,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,67 +516,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,6 +527,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -541,15 +550,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,24 +569,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -598,6 +580,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,214 +618,226 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1101,253 +1104,254 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="14.1339285714286" customWidth="1"/>
-    <col min="2" max="2" width="35.0982142857143" customWidth="1"/>
-    <col min="3" max="3" width="11.1517857142857" customWidth="1"/>
-    <col min="4" max="4" width="16.0178571428571" customWidth="1"/>
-    <col min="5" max="5" width="21.2678571428571" customWidth="1"/>
-    <col min="6" max="6" width="10.4196428571429" customWidth="1"/>
-    <col min="7" max="7" width="19.8392857142857" customWidth="1"/>
-    <col min="8" max="8" width="26.7053571428571" customWidth="1"/>
-    <col min="9" max="9" width="26.3392857142857" customWidth="1"/>
-    <col min="10" max="10" width="12.7946428571429" customWidth="1"/>
-    <col min="11" max="11" width="10.4107142857143" customWidth="1"/>
-    <col min="12" max="12" width="14.875" customWidth="1"/>
-    <col min="13" max="13" width="18.1696428571429" customWidth="1"/>
-    <col min="14" max="14" width="37.9375" customWidth="1"/>
+    <col min="1" max="1" width="13.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.8666666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.15" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.0166666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.2666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.4166666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.8416666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="52.3833333333333" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.1916666666667" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.78333333333333" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.025" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.825" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.14166666666667" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" t="s">
+    <row r="2" ht="42.75" spans="1:14">
+      <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3" t="s">
+    <row r="3" ht="42.75" spans="1:14">
+      <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1" spans="4:14">
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" ht="17" customHeight="1" spans="1:14">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" ht="34" customHeight="1" spans="4:14">
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" ht="28.8" spans="8:8">
-      <c r="H8" s="1"/>
+    <row r="8" ht="25.5" spans="8:8">
+      <c r="H8" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/API_TEST_FRAME/test_data/test_case.xlsx
+++ b/API_TEST_FRAME/test_data/test_case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -162,10 +162,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -184,6 +184,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -191,60 +198,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,15 +287,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,11 +303,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -310,22 +326,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -336,25 +336,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,43 +504,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,108 +517,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,17 +554,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,15 +598,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -608,22 +613,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,148 +632,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1108,16 +1108,16 @@
   <sheetPr/>
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="15.6" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="13.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.425" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.8666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.15" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.0166666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.4333333333333" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.2666666666667" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.4166666666667" style="1" customWidth="1"/>
     <col min="7" max="7" width="19.8416666666667" style="1" customWidth="1"/>
@@ -1131,7 +1131,7 @@
     <col min="15" max="16384" width="9.14166666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" ht="31.2" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" ht="42.75" spans="1:14">
+    <row r="2" ht="46.8" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" ht="42.75" spans="1:14">
+    <row r="3" ht="46.8" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" ht="25.5" spans="8:8">
+    <row r="8" ht="25.8" spans="8:8">
       <c r="H8" s="2"/>
     </row>
   </sheetData>

--- a/API_TEST_FRAME/test_data/test_case.xlsx
+++ b/API_TEST_FRAME/test_data/test_case.xlsx
@@ -162,8 +162,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -197,6 +197,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -212,18 +251,49 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -244,13 +314,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -261,69 +324,6 @@
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -342,19 +342,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,157 +498,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,6 +527,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -556,44 +580,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,16 +605,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,10 +635,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -647,133 +647,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1109,7 +1109,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="15.6" outlineLevelRow="7"/>
@@ -1274,7 +1274,7 @@
         <v>22</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>39</v>
@@ -1363,11 +1363,11 @@
     <mergeCell ref="C5:C6"/>
   </mergeCells>
   <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 J3:J4 J5:J6">
+      <formula1>"无,正则取值,json取值"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F3:F4 F5:F6">
       <formula1>"get,post"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 J3:J4 J5:J6">
-      <formula1>"无,正则取值,json取值"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2 M3 M4 M5 M6">
       <formula1>"无,json键是否存在,json键值对,正则匹配"</formula1>

--- a/API_TEST_FRAME/test_data/test_case.xlsx
+++ b/API_TEST_FRAME/test_data/test_case.xlsx
@@ -79,7 +79,7 @@
     <t>/cgi-bin/token</t>
   </si>
   <si>
-    <t>{"grant_type":"client_credential","appid":"wx55614004f367f8ca","secret":"65515b46dd758dfdb09420bb7db2c67f"}</t>
+    <t>{"grant_type":"client_credential","appid":"wx0591278088098c56","secret":"ceaab7a476a85194f507c8a00c82ad1f"}</t>
   </si>
   <si>
     <t>无</t>
@@ -88,7 +88,7 @@
     <t>json键是否存在</t>
   </si>
   <si>
-    <t>access_token,expires_in</t>
+    <t>"access_token","expires_in"</t>
   </si>
   <si>
     <t>case02</t>
@@ -162,8 +162,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -184,14 +184,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,9 +205,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,28 +221,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -245,7 +229,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,34 +273,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -313,15 +311,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,25 +336,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,157 +504,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,15 +554,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -578,17 +569,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -600,6 +580,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,6 +613,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -635,145 +635,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1108,8 +1108,8 @@
   <sheetPr/>
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="15.6" outlineLevelRow="7"/>
@@ -1363,11 +1363,11 @@
     <mergeCell ref="C5:C6"/>
   </mergeCells>
   <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F3:F4 F5:F6">
+      <formula1>"get,post"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 J3:J4 J5:J6">
       <formula1>"无,正则取值,json取值"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F3:F4 F5:F6">
-      <formula1>"get,post"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2 M3 M4 M5 M6">
       <formula1>"无,json键是否存在,json键值对,正则匹配"</formula1>

--- a/API_TEST_FRAME/test_data/test_case.xlsx
+++ b/API_TEST_FRAME/test_data/test_case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
     <t>case01</t>
   </si>
   <si>
-    <t>测试能否正确执行获取access_token接口</t>
+    <t>测试能否正确获取access_token</t>
   </si>
   <si>
     <t>是</t>
@@ -88,7 +88,7 @@
     <t>json键是否存在</t>
   </si>
   <si>
-    <t>"access_token","expires_in"</t>
+    <t>"access_token"</t>
   </si>
   <si>
     <t>case02</t>
@@ -130,7 +130,7 @@
     <t>{"access_token":${token}}</t>
   </si>
   <si>
-    <t>{"tag" : {"name" : "衡东8888"}}</t>
+    <t>{"tag" : {"name" : "衡东118"}}</t>
   </si>
   <si>
     <t>{"tag":{"id":(.+?),"name":"衡东8888"}}</t>
@@ -162,10 +162,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -185,6 +185,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,52 +220,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -274,24 +236,78 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -310,22 +326,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -342,181 +342,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,6 +527,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -569,28 +584,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,9 +610,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,148 +632,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1108,11 +1108,11 @@
   <sheetPr/>
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="15.6" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="9.425" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.8666666666667" style="1" customWidth="1"/>
@@ -1131,7 +1131,7 @@
     <col min="15" max="16384" width="9.14166666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.2" spans="1:14">
+    <row r="1" ht="28.5" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" ht="46.8" spans="1:14">
+    <row r="2" ht="42.75" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1200,6 +1200,7 @@
       <c r="H2" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
         <v>22</v>
       </c>
@@ -1210,7 +1211,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" ht="46.8" spans="1:14">
+    <row r="3" ht="42.75" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -1350,7 +1351,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" ht="25.8" spans="8:8">
+    <row r="8" ht="25.5" spans="8:8">
       <c r="H8" s="2"/>
     </row>
   </sheetData>
@@ -1363,14 +1364,14 @@
     <mergeCell ref="C5:C6"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F3:F4 F5:F6">
-      <formula1>"get,post"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2 M3 M4 M5 M6">
+      <formula1>"无,json键是否存在,json键值对,正则匹配"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 J3:J4 J5:J6">
       <formula1>"无,正则取值,json取值"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2 M3 M4 M5 M6">
-      <formula1>"无,json键是否存在,json键值对,正则匹配"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F3:F4 F5:F6">
+      <formula1>"get,post"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C2:C3">
       <formula1>"是,否"</formula1>
